--- a/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>7/13-14/2023</t>
   </si>
 </sst>
 </file>
@@ -667,6 +670,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -679,20 +691,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,7 +1392,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1435,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1499,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1559,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1625,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1688,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1786,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1845,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1910,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1953,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2028,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2214,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2280,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2338,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2404,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2460,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2535,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2578,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2644,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2700,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2798,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2861,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,9 +3338,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,14 +3370,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3385,14 +3388,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3405,16 +3408,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3440,18 +3443,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3498,7 +3501,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>54</v>
+        <v>56.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3508,7 +3511,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4964,13 +4967,15 @@
         <v>45047</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4978,15 +4983,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45078</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4994,8 +5003,12 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -5004,13 +5017,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45139</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5843,17 +5862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5922,14 +5941,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5943,17 +5962,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5967,17 +5986,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>PICNIC GROVE</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6003,18 +6022,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/SALAZAR, JOSIELYN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>7/13-14/2023</t>
+  </si>
+  <si>
+    <t>VL(18-0-0)</t>
+  </si>
+  <si>
+    <t>9/1-4,8-11,15-18,22-25,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -670,15 +676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -691,11 +688,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,7 +1398,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1441,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1505,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1565,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1631,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1694,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1792,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1851,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1916,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1959,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2034,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2220,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2286,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2344,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2410,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2466,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2541,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2584,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2650,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2706,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2804,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2867,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2963,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3340,7 +3346,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,14 +3376,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3388,14 +3394,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3408,16 +3414,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3443,18 +3449,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3501,7 +3507,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.5</v>
+        <v>57.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3511,7 +3517,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5006,25 +5012,21 @@
       <c r="A83" s="40">
         <v>45108</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="13"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="39">
-        <v>2</v>
-      </c>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
@@ -5862,17 +5864,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5905,12 +5907,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="C15" sqref="C15"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,14 +5943,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5962,17 +5964,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5986,17 +5988,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>PICNIC GROVE</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6022,18 +6024,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6080,7 +6082,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.3</v>
+        <v>66.3</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6090,7 +6092,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.790999999999997</v>
+        <v>46.790999999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6790,8 +6792,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
@@ -6800,16 +6806,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <v>2</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="39">
+        <v>18</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -6819,7 +6835,9 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
@@ -8214,20 +8232,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
